--- a/Azure-Devops-CICD-project-plan.xlsx
+++ b/Azure-Devops-CICD-project-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Udacity\Cloud DevOps using MS Azure\Project 2\udacity-azure-devops-project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44F185-909B-4B14-BDB1-4AE5FC49A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3511419D-B655-4D9A-BC80-379C1B7E6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Week</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Create a demo video and upload to YouTube</t>
-  </si>
-  <si>
-    <t>Replace the scaffolding code with the flask code and run local test</t>
   </si>
   <si>
     <t>Replace the scaffolding code with the flask code and run in Cloud Shell</t>
@@ -415,10 +412,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,7 +559,7 @@
       <c r="A5" s="4">
         <v>45427</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -593,12 +590,14 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>45431</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -625,14 +624,12 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>45431</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -661,7 +658,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -693,7 +690,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -723,12 +720,14 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
+      <c r="A10" s="4">
+        <v>45438</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -756,13 +755,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>45438</v>
+        <v>45445</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -789,14 +788,12 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>45445</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -825,10 +822,10 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -857,7 +854,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
@@ -887,72 +884,68 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -978,77 +971,77 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="18" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -28490,34 +28483,6 @@
       <c r="Y1001" s="6"/>
       <c r="Z1001" s="6"/>
     </row>
-    <row r="1002" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1002" s="10"/>
-      <c r="B1002" s="6"/>
-      <c r="C1002" s="6"/>
-      <c r="D1002" s="6"/>
-      <c r="E1002" s="6"/>
-      <c r="F1002" s="6"/>
-      <c r="G1002" s="6"/>
-      <c r="H1002" s="6"/>
-      <c r="I1002" s="6"/>
-      <c r="J1002" s="6"/>
-      <c r="K1002" s="6"/>
-      <c r="L1002" s="6"/>
-      <c r="M1002" s="6"/>
-      <c r="N1002" s="6"/>
-      <c r="O1002" s="6"/>
-      <c r="P1002" s="6"/>
-      <c r="Q1002" s="6"/>
-      <c r="R1002" s="6"/>
-      <c r="S1002" s="6"/>
-      <c r="T1002" s="6"/>
-      <c r="U1002" s="6"/>
-      <c r="V1002" s="6"/>
-      <c r="W1002" s="6"/>
-      <c r="X1002" s="6"/>
-      <c r="Y1002" s="6"/>
-      <c r="Z1002" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
